--- a/lammps/prof/rhodo_precision.xlsx
+++ b/lammps/prof/rhodo_precision.xlsx
@@ -476,112 +476,112 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MPI_Cart_get</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>MPI_Comm_dup</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Bcast</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Allreduce</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Comm_size</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MPI_Send</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Cart_get</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Allgather</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Sendrecv</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Comm_free</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Wait</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Cart_shift</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Waitany</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Finalize</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Cart_rank</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Init</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Barrier</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Reduce</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Irecv</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>MPI_Alltoallv</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>MPI_Comm_rank</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Allreduce</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Bcast</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Irecv</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>MPI_Alltoall</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>MPI_Cart_create</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Cart_rank</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Waitany</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Allgather</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Finalize</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Comm_size</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Wait</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Sendrecv</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Reduce</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Comm_free</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Init</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Cart_shift</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Alltoall</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>MPI_Barrier</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -623,31 +623,31 @@
         <v>0.11</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.26</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>3.9</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.13</v>
+        <v>1.51</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>5.07</v>
@@ -665,28 +665,28 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="Y2" t="n">
         <v>0.02</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>87</v>
+        <v>1.29</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC2" t="n">
         <v>0.03</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -723,40 +723,40 @@
         <v>21.44</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.77</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>16.61</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>71.56</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.61</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0.07000000000000001</v>
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>71.56</v>
+        <v>6.08</v>
       </c>
       <c r="X3" t="n">
-        <v>1.82</v>
+        <v>0.08</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.08</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -823,61 +823,61 @@
         <v>34.02</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.48</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16.19</v>
-      </c>
       <c r="O4" t="n">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>69.43000000000001</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
       <c r="AA4" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0.09</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE4" t="n">
         <v>4</v>
@@ -923,40 +923,40 @@
         <v>47.46</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.02</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.16</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>21.42</v>
-      </c>
       <c r="O5" t="n">
-        <v>3.72</v>
+        <v>0.01</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06</v>
+        <v>1.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>59.1</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.37</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.01</v>
       </c>
       <c r="U5" t="n">
         <v>0.06</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>59.1</v>
+        <v>9.65</v>
       </c>
       <c r="X5" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.65</v>
+        <v>0.01</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0.01</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AE5" t="n">
         <v>8</v>
@@ -1023,40 +1023,40 @@
         <v>70.3</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.03</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>1.33</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17.39</v>
-      </c>
       <c r="O6" t="n">
-        <v>5.73</v>
+        <v>0.01</v>
       </c>
       <c r="P6" t="n">
-        <v>0.12</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>35.96</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>22.66</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.01</v>
       </c>
       <c r="U6" t="n">
         <v>0.07000000000000001</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>35.96</v>
+        <v>15.13</v>
       </c>
       <c r="X6" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.13</v>
+        <v>0.06</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0.01</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AE6" t="n">
         <v>16</v>
@@ -1123,40 +1123,40 @@
         <v>133.86</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.04</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>20</v>
-      </c>
       <c r="O7" t="n">
-        <v>7.79</v>
+        <v>0.19</v>
       </c>
       <c r="P7" t="n">
         <v>0.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.63</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>17.26</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.19</v>
       </c>
       <c r="U7" t="n">
         <v>0.1</v>
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>20.63</v>
+        <v>31.96</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.12</v>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
       <c r="AA7" t="n">
-        <v>31.96</v>
+        <v>0.11</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0.32</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AE7" t="n">
         <v>32</v>
@@ -1223,40 +1223,40 @@
         <v>271.05</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.04</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.25</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12.43</v>
-      </c>
       <c r="O8" t="n">
-        <v>3.53</v>
+        <v>0.27</v>
       </c>
       <c r="P8" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>14.31</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.27</v>
       </c>
       <c r="U8" t="n">
         <v>0.17</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>13.35</v>
+        <v>53.14</v>
       </c>
       <c r="X8" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AA8" t="n">
-        <v>53.14</v>
+        <v>0.89</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0.12</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AE8" t="n">
         <v>64</v>
@@ -1323,40 +1323,40 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.86</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.01</v>
+        <v>1.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.79</v>
+        <v>2.92</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.1</v>
+        <v>0.03</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.27</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>7.75</v>
@@ -1365,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Y9" t="n">
         <v>0.03</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>81.45999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="AB9" t="n">
         <v>0.01</v>
@@ -1386,7 +1386,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
@@ -1426,37 +1426,37 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.8</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17.6</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>72.03</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.65</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0.05</v>
@@ -1465,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.03</v>
+        <v>4.35</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.35</v>
+        <v>0.12</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0.14</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AE10" t="n">
         <v>2</v>
@@ -1523,40 +1523,40 @@
         <v>43.91</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>2.44</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>18.97</v>
-      </c>
       <c r="O11" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>67.33</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.39</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0.04</v>
@@ -1565,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>67.33</v>
+        <v>4.09</v>
       </c>
       <c r="X11" t="n">
-        <v>2.08</v>
+        <v>0.01</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.09</v>
+        <v>0.01</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1623,40 +1623,40 @@
         <v>55.08</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.02</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="L12" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>19.1</v>
-      </c>
       <c r="O12" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02</v>
+        <v>1.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>63.83</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.13</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0.02</v>
@@ -1665,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>63.83</v>
+        <v>7.95</v>
       </c>
       <c r="X12" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.95</v>
+        <v>0.21</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0.02</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -1723,40 +1723,40 @@
         <v>69.76000000000001</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.03</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="L13" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.06</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.7</v>
-      </c>
       <c r="O13" t="n">
-        <v>6.92</v>
+        <v>0.01</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>40.12</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>14.63</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.01</v>
       </c>
       <c r="U13" t="n">
         <v>0.07000000000000001</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.12</v>
+        <v>18.14</v>
       </c>
       <c r="X13" t="n">
-        <v>1.88</v>
+        <v>0.01</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.14</v>
+        <v>0.06</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0.28</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="AE13" t="n">
         <v>16</v>
@@ -1823,40 +1823,40 @@
         <v>111.62</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.04</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>1.16</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.609999999999999</v>
-      </c>
       <c r="O14" t="n">
-        <v>10.22</v>
+        <v>0.37</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04</v>
+        <v>0.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>26.14</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>17.81</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.37</v>
       </c>
       <c r="U14" t="n">
         <v>0.11</v>
@@ -1865,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>26.14</v>
+        <v>33.5</v>
       </c>
       <c r="X14" t="n">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AA14" t="n">
-        <v>33.5</v>
+        <v>0.51</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0.14</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.45</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE14" t="n">
         <v>32</v>
@@ -1923,40 +1923,40 @@
         <v>260.62</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.04</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.71</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.62</v>
-      </c>
       <c r="O15" t="n">
-        <v>4.23</v>
+        <v>0.01</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04</v>
+        <v>1.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12.71</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>14.69</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.01</v>
       </c>
       <c r="U15" t="n">
         <v>0.19</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>12.71</v>
+        <v>57.03</v>
       </c>
       <c r="X15" t="n">
-        <v>1.28</v>
+        <v>0.02</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AA15" t="n">
-        <v>57.03</v>
+        <v>0.99</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AE15" t="n">
         <v>64</v>
@@ -2023,40 +2023,40 @@
         <v>0.08</v>
       </c>
       <c r="I16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.19</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
-        <v>0.01</v>
+        <v>1.04</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>3.44</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.04</v>
+        <v>0.03</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>7.66</v>
@@ -2065,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>77.08</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y16" t="n">
         <v>0.04</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>77.08</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
         <v>0.01</v>
@@ -2086,7 +2086,7 @@
         <v>0.09</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -2126,37 +2126,37 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L17" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.52</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>19.25</v>
-      </c>
       <c r="O17" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.81</v>
       </c>
       <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.74</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0.02</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>73.81</v>
+        <v>1.43</v>
       </c>
       <c r="X17" t="n">
-        <v>2.65</v>
+        <v>0.11</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0.15</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="AE17" t="n">
         <v>2</v>
@@ -2226,58 +2226,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L18" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.71</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>19.41</v>
-      </c>
       <c r="O18" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>70.63</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>70.63</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
       <c r="AA18" t="n">
-        <v>1.19</v>
+        <v>0.01</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0.19</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AE18" t="n">
         <v>4</v>
@@ -2323,40 +2323,40 @@
         <v>171.23</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>3.15</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>18.92</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.73</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.46</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0.02</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>67.73</v>
+        <v>3.47</v>
       </c>
       <c r="X19" t="n">
-        <v>2.42</v>
+        <v>0.06</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.47</v>
+        <v>0.03</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AE19" t="n">
         <v>8</v>
@@ -2423,40 +2423,40 @@
         <v>195.72</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L20" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>2.22</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>18.93</v>
-      </c>
       <c r="O20" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03</v>
+        <v>1.41</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>50.21</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>18.27</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0.15</v>
@@ -2465,19 +2465,19 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>50.21</v>
+        <v>5.7</v>
       </c>
       <c r="X20" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.7</v>
+        <v>0.15</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0.14</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
@@ -2523,40 +2523,40 @@
         <v>275.71</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.02</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.38</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>16.5</v>
-      </c>
       <c r="O21" t="n">
-        <v>4.11</v>
+        <v>0.01</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03</v>
+        <v>1.41</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>21.07</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.01</v>
       </c>
       <c r="U21" t="n">
         <v>0.04</v>
@@ -2565,19 +2565,19 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>31.25</v>
+        <v>23.54</v>
       </c>
       <c r="X21" t="n">
-        <v>1.41</v>
+        <v>0.19</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA21" t="n">
-        <v>23.54</v>
+        <v>0.23</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="AE21" t="n">
         <v>32</v>
@@ -2623,40 +2623,40 @@
         <v>419.44</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.02</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>1.19</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>20.06</v>
-      </c>
       <c r="O22" t="n">
-        <v>2.36</v>
+        <v>0.01</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04</v>
+        <v>0.97</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>19.85</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>18.37</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.01</v>
       </c>
       <c r="U22" t="n">
         <v>0.3</v>
@@ -2665,19 +2665,19 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>19.85</v>
+        <v>35.73</v>
       </c>
       <c r="X22" t="n">
-        <v>0.97</v>
+        <v>0.25</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AA22" t="n">
-        <v>35.73</v>
+        <v>0.7</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0.11</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AE22" t="n">
         <v>64</v>
@@ -2723,61 +2723,61 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J23" t="n">
         <v>2.61</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
-        <v>0.01</v>
+        <v>1.05</v>
       </c>
       <c r="L23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>80.18000000000001</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
         <v>14.66</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>80.18000000000001</v>
       </c>
       <c r="AB23" t="n">
         <v>0.01</v>
@@ -2786,7 +2786,7 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -2823,61 +2823,61 @@
         <v>3.96</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.03</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.14</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="O24" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P24" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.17</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="O24" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="X24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>30.19</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>8.81</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.69</v>
+        <v>1.27</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -2926,58 +2926,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L25" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>5.46</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>70.47</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
         <v>0.03</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>70.47</v>
-      </c>
-      <c r="X25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.6</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0.17</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="AE25" t="n">
         <v>4</v>
@@ -3026,58 +3026,58 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L26" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>4.02</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
         <v>0.02</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="AA26" t="n">
         <v>0.02</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="X26" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1.29</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0.23</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -3126,58 +3126,58 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L27" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>3.56</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>51.17</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA27" t="n">
         <v>0.11</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>51.17</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.54</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0.15</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AE27" t="n">
         <v>16</v>
@@ -3223,40 +3223,40 @@
         <v>517.25</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>2.25</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>20.15</v>
-      </c>
       <c r="O28" t="n">
-        <v>2.3</v>
+        <v>0.08</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>36.7</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>28.51</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.08</v>
       </c>
       <c r="U28" t="n">
         <v>0.03</v>
@@ -3265,19 +3265,19 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>36.7</v>
+        <v>8.56</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.56</v>
+        <v>0.25</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0.04</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AE28" t="n">
         <v>32</v>
@@ -3323,40 +3323,40 @@
         <v>704.9299999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L29" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>1.42</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>20.14</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>25.69</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>29.76</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0.07000000000000001</v>
@@ -3365,19 +3365,19 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>25.69</v>
+        <v>20.35</v>
       </c>
       <c r="X29" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.35</v>
+        <v>0.8</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0.11</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AE29" t="n">
         <v>64</v>
@@ -3423,31 +3423,31 @@
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.54</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="L30" t="n">
-        <v>1.35</v>
+        <v>4.57</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.08</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>24.67</v>
@@ -3465,28 +3465,28 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>66.08</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y30" t="n">
         <v>0.01</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>66.08</v>
+        <v>1.35</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC30" t="n">
         <v>0.03</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AE30" t="n">
         <v>1</v>
@@ -3523,40 +3523,40 @@
         <v>31.17</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.52</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L31" t="n">
+        <v>42.81</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>5.29</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>42.81</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>0.44</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01</v>
+        <v>2.36</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>16.96</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.44</v>
       </c>
       <c r="U31" t="n">
         <v>0.08</v>
@@ -3565,19 +3565,19 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>26.4</v>
+        <v>3.9</v>
       </c>
       <c r="X31" t="n">
-        <v>2.36</v>
+        <v>0.01</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>2</v>
@@ -3626,37 +3626,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L32" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>2.25</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>34.67</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.76</v>
+        <v>0.03</v>
       </c>
       <c r="P32" t="n">
-        <v>0.02</v>
+        <v>1.85</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>44.73</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>12.11</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.03</v>
       </c>
       <c r="U32" t="n">
         <v>0.13</v>
@@ -3665,19 +3665,19 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>44.73</v>
+        <v>1.77</v>
       </c>
       <c r="X32" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.77</v>
+        <v>0.39</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>0.15</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AE32" t="n">
         <v>4</v>
@@ -3723,70 +3723,70 @@
         <v>110.78</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="L33" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.46</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>16.78</v>
-      </c>
       <c r="O33" t="n">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
         <v>0.03</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="AA33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
         <v>0.35</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>8</v>
@@ -3823,40 +3823,40 @@
         <v>145.74</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="L34" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.65</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>16.24</v>
-      </c>
       <c r="O34" t="n">
-        <v>5.81</v>
+        <v>0.11</v>
       </c>
       <c r="P34" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.1</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>30.34</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.11</v>
       </c>
       <c r="U34" t="n">
         <v>0.03</v>
@@ -3865,19 +3865,19 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>39.1</v>
+        <v>7.24</v>
       </c>
       <c r="X34" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.24</v>
+        <v>0.02</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>0.01</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE34" t="n">
         <v>16</v>
@@ -3923,40 +3923,40 @@
         <v>365.79</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.44</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>29.39</v>
-      </c>
       <c r="O35" t="n">
-        <v>9.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05</v>
+        <v>1.47</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.71</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>25.72</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0.04</v>
@@ -3965,19 +3965,19 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>21.71</v>
+        <v>10.3</v>
       </c>
       <c r="X35" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA35" t="n">
-        <v>10.3</v>
+        <v>1.31</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0.03</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AE35" t="n">
         <v>32</v>
@@ -4023,40 +4023,40 @@
         <v>663.3</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.53</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>28.09</v>
-      </c>
       <c r="O36" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>12.58</v>
       </c>
       <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>28.02</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0.22</v>
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>12.58</v>
+        <v>21.94</v>
       </c>
       <c r="X36" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AA36" t="n">
-        <v>21.94</v>
+        <v>0.53</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -4123,31 +4123,31 @@
         <v>0.08</v>
       </c>
       <c r="I37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.25</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="L37" t="n">
-        <v>3.38</v>
+        <v>2.97</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.14</v>
+        <v>2.04</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>27.82</v>
@@ -4165,28 +4165,28 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>62.33</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Y37" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>62.33</v>
+        <v>3.38</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC37" t="n">
         <v>0.06</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="AE37" t="n">
         <v>1</v>
@@ -4223,61 +4223,61 @@
         <v>22.17</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L38" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>17.06</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>0.18</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>34.12</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.72</v>
-      </c>
       <c r="P38" t="n">
-        <v>0.01</v>
+        <v>1.21</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>28.68</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA38" t="n">
         <v>0.18</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>5.04</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0.75</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="AE38" t="n">
         <v>2</v>
@@ -4326,37 +4326,37 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="L39" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>8.460000000000001</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>27.68</v>
-      </c>
       <c r="O39" t="n">
-        <v>5.33</v>
+        <v>0.03</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01</v>
+        <v>1.47</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>43.95</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>10.95</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.03</v>
       </c>
       <c r="U39" t="n">
         <v>0.23</v>
@@ -4365,19 +4365,19 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>43.95</v>
+        <v>1.44</v>
       </c>
       <c r="X39" t="n">
-        <v>1.47</v>
+        <v>0.19</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.44</v>
+        <v>0.01</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0.27</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
         <v>4</v>
@@ -4423,40 +4423,40 @@
         <v>145.27</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.28</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>1.46</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>31.06</v>
-      </c>
       <c r="O40" t="n">
-        <v>5.3</v>
+        <v>0.14</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01</v>
+        <v>1.99</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.49</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>14.53</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.14</v>
       </c>
       <c r="U40" t="n">
         <v>0.03</v>
@@ -4465,19 +4465,19 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.49</v>
+        <v>2.15</v>
       </c>
       <c r="X40" t="n">
-        <v>1.99</v>
+        <v>0.01</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.15</v>
+        <v>0.12</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>0.31</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AE40" t="n">
         <v>8</v>
@@ -4523,40 +4523,40 @@
         <v>145.57</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>0.97</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>24.35</v>
-      </c>
       <c r="O41" t="n">
-        <v>9.119999999999999</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.02</v>
+        <v>1.87</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>35.05</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>19.59</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0.29</v>
@@ -4565,19 +4565,19 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>35.05</v>
+        <v>7.23</v>
       </c>
       <c r="X41" t="n">
-        <v>1.87</v>
+        <v>0.63</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.23</v>
+        <v>0.57</v>
       </c>
       <c r="AB41" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0.28</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.63</v>
+        <v>0.01</v>
       </c>
       <c r="AE41" t="n">
         <v>16</v>
@@ -4623,40 +4623,40 @@
         <v>283.05</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>2.24</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="L42" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.53</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>29.65</v>
-      </c>
       <c r="O42" t="n">
-        <v>17.71</v>
+        <v>1.94</v>
       </c>
       <c r="P42" t="n">
-        <v>0.02</v>
+        <v>2.03</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>18.32</v>
       </c>
       <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
         <v>12.21</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.94</v>
       </c>
       <c r="U42" t="n">
         <v>0.36</v>
@@ -4665,19 +4665,19 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>18.32</v>
+        <v>13.31</v>
       </c>
       <c r="X42" t="n">
-        <v>2.03</v>
+        <v>0.13</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA42" t="n">
-        <v>13.31</v>
+        <v>1.06</v>
       </c>
       <c r="AB42" t="n">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0.48</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AE42" t="n">
         <v>32</v>
@@ -4723,40 +4723,40 @@
         <v>413.31</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.32</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="L43" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.51</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>22.52</v>
-      </c>
       <c r="O43" t="n">
-        <v>7.38</v>
+        <v>0.38</v>
       </c>
       <c r="P43" t="n">
-        <v>0.03</v>
+        <v>1.07</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>12.19</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.38</v>
       </c>
       <c r="U43" t="n">
         <v>0.36</v>
@@ -4765,19 +4765,19 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>13.49</v>
+        <v>35.95</v>
       </c>
       <c r="X43" t="n">
-        <v>1.07</v>
+        <v>0.01</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA43" t="n">
-        <v>35.95</v>
+        <v>3.76</v>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>1.24</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE43" t="n">
         <v>64</v>
@@ -4823,31 +4823,31 @@
         <v>0.11</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.46</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="L44" t="n">
-        <v>4.7</v>
+        <v>2.82</v>
       </c>
       <c r="M44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.62</v>
+        <v>0.01</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>31.76</v>
@@ -4865,28 +4865,28 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Y44" t="n">
         <v>0.02</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>58.4</v>
+        <v>4.7</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC44" t="n">
         <v>0.08</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="AE44" t="n">
         <v>1</v>
@@ -4923,40 +4923,40 @@
         <v>28.7</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="L45" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>17.53</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>28.39</v>
-      </c>
       <c r="O45" t="n">
-        <v>5.21</v>
+        <v>0.02</v>
       </c>
       <c r="P45" t="n">
-        <v>0.01</v>
+        <v>2.08</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>28.09</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
         <v>13.48</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.02</v>
       </c>
       <c r="U45" t="n">
         <v>0.09</v>
@@ -4965,19 +4965,19 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>28.09</v>
+        <v>3.97</v>
       </c>
       <c r="X45" t="n">
-        <v>2.08</v>
+        <v>0.11</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.97</v>
+        <v>0.31</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0.64</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE45" t="n">
         <v>2</v>
@@ -5023,40 +5023,40 @@
         <v>178.45</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.14</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L46" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>10.44</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>19.53</v>
-      </c>
       <c r="O46" t="n">
-        <v>4.55</v>
+        <v>0.18</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01</v>
+        <v>2.28</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>55.95</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>5.75</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0.18</v>
       </c>
       <c r="U46" t="n">
         <v>0.05</v>
@@ -5065,19 +5065,19 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>55.95</v>
+        <v>0.68</v>
       </c>
       <c r="X46" t="n">
-        <v>2.28</v>
+        <v>0.15</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>0.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AE46" t="n">
         <v>4</v>
@@ -5126,58 +5126,58 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="L47" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>7.89</v>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>55.62</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA47" t="n">
         <v>0.02</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>55.62</v>
-      </c>
-      <c r="X47" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1.07</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0.32</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="AE47" t="n">
         <v>8</v>
@@ -5226,58 +5226,58 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="L48" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>2.03</v>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="O48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA48" t="n">
         <v>2.54</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>26.71</v>
-      </c>
-      <c r="O48" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>39.86</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>3.04</v>
       </c>
       <c r="AB48" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE48" t="n">
         <v>16</v>
@@ -5323,40 +5323,40 @@
         <v>458.17</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="L49" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.97</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>26.15</v>
-      </c>
       <c r="O49" t="n">
-        <v>12.51</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P49" t="n">
-        <v>0.02</v>
+        <v>0.78</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
         <v>22.33</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="U49" t="n">
         <v>0.03</v>
@@ -5365,19 +5365,19 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>26.9</v>
+        <v>8.06</v>
       </c>
       <c r="X49" t="n">
-        <v>0.78</v>
+        <v>0.14</v>
       </c>
       <c r="Y49" t="n">
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.06</v>
+        <v>1.44</v>
       </c>
       <c r="AB49" t="n">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0.59</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AE49" t="n">
         <v>32</v>
@@ -5423,40 +5423,40 @@
         <v>839.11</v>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.55</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="L50" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.71</v>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>31.63</v>
-      </c>
       <c r="O50" t="n">
-        <v>2.41</v>
+        <v>0.4</v>
       </c>
       <c r="P50" t="n">
-        <v>0.02</v>
+        <v>1.36</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>20.19</v>
       </c>
       <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
         <v>20.33</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.4</v>
       </c>
       <c r="U50" t="n">
         <v>0.15</v>
@@ -5465,19 +5465,19 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>20.19</v>
+        <v>17.53</v>
       </c>
       <c r="X50" t="n">
-        <v>1.36</v>
+        <v>0.5</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA50" t="n">
-        <v>17.53</v>
+        <v>3.26</v>
       </c>
       <c r="AB50" t="n">
         <v>0</v>
@@ -5486,7 +5486,7 @@
         <v>0.75</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AE50" t="n">
         <v>64</v>
@@ -5523,70 +5523,70 @@
         <v>0.09</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>1.05</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="L51" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
         <v>45.47</v>
       </c>
-      <c r="M51" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>51.67</v>
-      </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC51" t="n">
         <v>0.13</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="AE51" t="n">
         <v>1</v>
@@ -5623,61 +5623,61 @@
         <v>2.35</v>
       </c>
       <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.05</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="L52" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
         <v>0.22</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
         <v>8.75</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="O52" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>49.1</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>5.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>1.35</v>
+        <v>0.86</v>
       </c>
       <c r="AE52" t="n">
         <v>2</v>
@@ -5726,58 +5726,58 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L53" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
         <v>14.83</v>
       </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>18.75</v>
-      </c>
       <c r="O53" t="n">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
       <c r="P53" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>60.14</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q53" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>60.14</v>
-      </c>
-      <c r="X53" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0</v>
-      </c>
       <c r="AA53" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0.18</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="AE53" t="n">
         <v>4</v>
@@ -5823,61 +5823,61 @@
         <v>498.84</v>
       </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.04</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L54" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
         <v>5.87</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
+      <c r="O54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA54" t="n">
         <v>0.08</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" t="n">
-        <v>66.06999999999999</v>
-      </c>
-      <c r="X54" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0.61</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
@@ -5886,7 +5886,7 @@
         <v>0.15</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="AE54" t="n">
         <v>8</v>
@@ -5926,37 +5926,37 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L55" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
         <v>5.1</v>
       </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>21.34</v>
-      </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02</v>
+        <v>1.6</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>46.98</v>
       </c>
       <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
         <v>21.17</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0.02</v>
@@ -5965,19 +5965,19 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>46.98</v>
+        <v>1.61</v>
       </c>
       <c r="X55" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.61</v>
+        <v>0.33</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0.39</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="AE55" t="n">
         <v>16</v>
@@ -6023,40 +6023,40 @@
         <v>819.97</v>
       </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.06</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
         <v>1.9</v>
       </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>22.99</v>
-      </c>
       <c r="O56" t="n">
-        <v>7.5</v>
+        <v>0.13</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>31.56</v>
       </c>
       <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
         <v>27.88</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0.13</v>
       </c>
       <c r="U56" t="n">
         <v>0.07000000000000001</v>
@@ -6065,19 +6065,19 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>31.56</v>
+        <v>4.53</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA56" t="n">
-        <v>4.53</v>
+        <v>1.58</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0.48</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AE56" t="n">
         <v>32</v>
@@ -6123,40 +6123,40 @@
         <v>1076.68</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L57" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>26.56</v>
-      </c>
       <c r="O57" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0.03</v>
+        <v>0.83</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>30.17</v>
       </c>
       <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
         <v>22.42</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0.04</v>
@@ -6165,19 +6165,19 @@
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>30.17</v>
+        <v>13.49</v>
       </c>
       <c r="X57" t="n">
-        <v>0.83</v>
+        <v>0.24</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA57" t="n">
-        <v>13.49</v>
+        <v>2.08</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0.89</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="AE57" t="n">
         <v>64</v>
@@ -6223,31 +6223,31 @@
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.68</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.41</v>
+        <v>5.09</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>5.09</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.08</v>
+        <v>1.37</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>23.02</v>
@@ -6265,19 +6265,19 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y58" t="n">
         <v>0.02</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>68.04000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0.03</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AE58" t="n">
         <v>1</v>
@@ -6323,40 +6323,40 @@
         <v>23.99</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="L59" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>4.78</v>
       </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>23.4</v>
-      </c>
       <c r="O59" t="n">
-        <v>4.51</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0.01</v>
+        <v>2.95</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>54.95</v>
       </c>
       <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
         <v>4.33</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0.05</v>
@@ -6365,19 +6365,19 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>54.95</v>
+        <v>4.89</v>
       </c>
       <c r="X59" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA59" t="n">
-        <v>4.89</v>
+        <v>0.11</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
@@ -6426,37 +6426,37 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L60" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>1.63</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>13.67</v>
-      </c>
       <c r="O60" t="n">
-        <v>1.31</v>
+        <v>0.01</v>
       </c>
       <c r="P60" t="n">
-        <v>0.02</v>
+        <v>4.06</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>55.09</v>
       </c>
       <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
         <v>22.34</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0.01</v>
       </c>
       <c r="U60" t="n">
         <v>0.05</v>
@@ -6465,19 +6465,19 @@
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>55.09</v>
+        <v>1.81</v>
       </c>
       <c r="X60" t="n">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
@@ -6523,40 +6523,40 @@
         <v>106.8</v>
       </c>
       <c r="I61" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="L61" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.47</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>23.59</v>
-      </c>
       <c r="O61" t="n">
-        <v>8.619999999999999</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0.03</v>
+        <v>1.03</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>46.28</v>
       </c>
       <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
         <v>16.41</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0.32</v>
@@ -6565,19 +6565,19 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>46.28</v>
+        <v>2.99</v>
       </c>
       <c r="X61" t="n">
-        <v>1.03</v>
+        <v>0.16</v>
       </c>
       <c r="Y61" t="n">
         <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA61" t="n">
-        <v>2.99</v>
+        <v>0.01</v>
       </c>
       <c r="AB61" t="n">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
         <v>8</v>
@@ -6623,40 +6623,40 @@
         <v>173.13</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K62" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="L62" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>0.6</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>35.42</v>
-      </c>
       <c r="O62" t="n">
-        <v>12.59</v>
+        <v>0.19</v>
       </c>
       <c r="P62" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>23.92</v>
       </c>
       <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
         <v>20.71</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.19</v>
       </c>
       <c r="U62" t="n">
         <v>0.03</v>
@@ -6665,19 +6665,19 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>23.92</v>
+        <v>5.95</v>
       </c>
       <c r="X62" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AA62" t="n">
-        <v>5.95</v>
+        <v>0.01</v>
       </c>
       <c r="AB62" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>0.15</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE62" t="n">
         <v>16</v>
@@ -6723,40 +6723,40 @@
         <v>303</v>
       </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.02</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="L63" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
         <v>0.55</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>19.66</v>
-      </c>
       <c r="O63" t="n">
-        <v>13.26</v>
+        <v>0.13</v>
       </c>
       <c r="P63" t="n">
-        <v>0.05</v>
+        <v>2.11</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>19.59</v>
       </c>
       <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
         <v>29.91</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0.13</v>
       </c>
       <c r="U63" t="n">
         <v>0.04</v>
@@ -6765,19 +6765,19 @@
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>19.59</v>
+        <v>12.17</v>
       </c>
       <c r="X63" t="n">
-        <v>2.11</v>
+        <v>0.42</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA63" t="n">
-        <v>12.17</v>
+        <v>1.43</v>
       </c>
       <c r="AB63" t="n">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0.66</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="AE63" t="n">
         <v>32</v>
@@ -6823,40 +6823,40 @@
         <v>513.86</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.02</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L64" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
         <v>0.65</v>
       </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>24.57</v>
-      </c>
       <c r="O64" t="n">
-        <v>2.67</v>
+        <v>0.01</v>
       </c>
       <c r="P64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>12.31</v>
       </c>
       <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
         <v>23.94</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0.01</v>
       </c>
       <c r="U64" t="n">
         <v>0.11</v>
@@ -6865,19 +6865,19 @@
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>12.31</v>
+        <v>28.39</v>
       </c>
       <c r="X64" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA64" t="n">
-        <v>28.39</v>
+        <v>4.91</v>
       </c>
       <c r="AB64" t="n">
         <v>0</v>
@@ -6886,7 +6886,7 @@
         <v>0.98</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
       <c r="AE64" t="n">
         <v>64</v>
@@ -6923,31 +6923,31 @@
         <v>0.09</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.22</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L65" t="n">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.13</v>
+        <v>1.83</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>24.68</v>
@@ -6965,28 +6965,28 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Y65" t="n">
         <v>0.59</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>66.76000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC65" t="n">
         <v>0.06</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="AE65" t="n">
         <v>1</v>
@@ -7023,40 +7023,40 @@
         <v>17.41</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K66" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="L66" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>15.86</v>
       </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>33.15</v>
-      </c>
       <c r="O66" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0.01</v>
+        <v>1.62</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>26.21</v>
       </c>
       <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
         <v>8.44</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0.1</v>
@@ -7065,19 +7065,19 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>26.21</v>
+        <v>6.82</v>
       </c>
       <c r="X66" t="n">
-        <v>1.62</v>
+        <v>0.17</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.82</v>
+        <v>0.37</v>
       </c>
       <c r="AB66" t="n">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         <v>1.17</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AE66" t="n">
         <v>2</v>
@@ -7123,40 +7123,40 @@
         <v>53.55</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="L67" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
         <v>6.61</v>
       </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>31.47</v>
-      </c>
       <c r="O67" t="n">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0.01</v>
+        <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>44.13</v>
       </c>
       <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
         <v>7.76</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0.07000000000000001</v>
@@ -7165,19 +7165,19 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>44.13</v>
+        <v>2.22</v>
       </c>
       <c r="X67" t="n">
-        <v>2.75</v>
+        <v>0.46</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA67" t="n">
-        <v>2.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB67" t="n">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
       <c r="AE67" t="n">
         <v>4</v>
@@ -7223,40 +7223,40 @@
         <v>87.29000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="L68" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
         <v>1.22</v>
       </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>30.94</v>
-      </c>
       <c r="O68" t="n">
-        <v>6.76</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0.01</v>
+        <v>2.23</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>45.76</v>
       </c>
       <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
         <v>9.4</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0.03</v>
@@ -7265,19 +7265,19 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>45.76</v>
+        <v>3.46</v>
       </c>
       <c r="X68" t="n">
-        <v>2.23</v>
+        <v>0.01</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA68" t="n">
-        <v>3.46</v>
+        <v>0.02</v>
       </c>
       <c r="AB68" t="n">
         <v>0</v>
@@ -7323,40 +7323,40 @@
         <v>121.65</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K69" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="L69" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
         <v>0.91</v>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>25.81</v>
-      </c>
       <c r="O69" t="n">
-        <v>12.26</v>
+        <v>0.12</v>
       </c>
       <c r="P69" t="n">
-        <v>0.02</v>
+        <v>2.02</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>30.62</v>
       </c>
       <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
         <v>17.38</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0.12</v>
       </c>
       <c r="U69" t="n">
         <v>0.24</v>
@@ -7365,19 +7365,19 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>30.62</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="X69" t="n">
-        <v>2.02</v>
+        <v>0.01</v>
       </c>
       <c r="Y69" t="n">
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA69" t="n">
-        <v>8.529999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AB69" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>0.89</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="AE69" t="n">
         <v>16</v>
@@ -7423,40 +7423,40 @@
         <v>246.2</v>
       </c>
       <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.02</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L70" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
         <v>0.47</v>
       </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>16.66</v>
-      </c>
       <c r="O70" t="n">
-        <v>21.48</v>
+        <v>0.01</v>
       </c>
       <c r="P70" t="n">
-        <v>0.02</v>
+        <v>1.67</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
         <v>14.61</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0.01</v>
       </c>
       <c r="U70" t="n">
         <v>0.06</v>
@@ -7465,19 +7465,19 @@
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>17.7</v>
+        <v>14.95</v>
       </c>
       <c r="X70" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="Y70" t="n">
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA70" t="n">
-        <v>14.95</v>
+        <v>9.33</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>1.51</v>
       </c>
       <c r="AD70" t="n">
-        <v>1.23</v>
+        <v>0.29</v>
       </c>
       <c r="AE70" t="n">
         <v>32</v>
@@ -7523,40 +7523,40 @@
         <v>459.8</v>
       </c>
       <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>0.73</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.43</v>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>24.85</v>
-      </c>
       <c r="O71" t="n">
-        <v>9.630000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="P71" t="n">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
         <v>13.64</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0.7</v>
       </c>
       <c r="U71" t="n">
         <v>0.47</v>
@@ -7565,19 +7565,19 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>10.61</v>
+        <v>31.83</v>
       </c>
       <c r="X71" t="n">
-        <v>0.97</v>
+        <v>0.45</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA71" t="n">
-        <v>31.83</v>
+        <v>3.57</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>1.06</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.45</v>
+        <v>1.02</v>
       </c>
       <c r="AE71" t="n">
         <v>64</v>
@@ -7623,31 +7623,31 @@
         <v>0.1</v>
       </c>
       <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.2</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L72" t="n">
-        <v>22.09</v>
+        <v>2.9</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.12</v>
+        <v>2.21</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>22.13</v>
@@ -7665,28 +7665,28 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>49.46</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Y72" t="n">
         <v>0.55</v>
       </c>
       <c r="Z72" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>49.46</v>
+        <v>22.09</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC72" t="n">
         <v>0.08</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="AE72" t="n">
         <v>1</v>
@@ -7723,40 +7723,40 @@
         <v>29.53</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K73" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="L73" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
         <v>14.8</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>27.83</v>
-      </c>
       <c r="O73" t="n">
-        <v>10.42</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.01</v>
+        <v>2.33</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>23.92</v>
       </c>
       <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
         <v>14.32</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0.1</v>
@@ -7765,19 +7765,19 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>23.92</v>
+        <v>3.96</v>
       </c>
       <c r="X73" t="n">
-        <v>2.33</v>
+        <v>0.43</v>
       </c>
       <c r="Y73" t="n">
         <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA73" t="n">
-        <v>3.96</v>
+        <v>1.02</v>
       </c>
       <c r="AB73" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0.71</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="AE73" t="n">
         <v>2</v>
@@ -7826,37 +7826,37 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="L74" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
         <v>10.14</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>21.8</v>
-      </c>
       <c r="O74" t="n">
-        <v>4.21</v>
+        <v>0.02</v>
       </c>
       <c r="P74" t="n">
-        <v>0.03</v>
+        <v>3.78</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>54.48</v>
       </c>
       <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
         <v>4.09</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0.02</v>
       </c>
       <c r="U74" t="n">
         <v>0.07000000000000001</v>
@@ -7865,19 +7865,19 @@
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>54.48</v>
+        <v>0.98</v>
       </c>
       <c r="X74" t="n">
-        <v>3.78</v>
+        <v>0.09</v>
       </c>
       <c r="Y74" t="n">
         <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.98</v>
+        <v>0.05</v>
       </c>
       <c r="AB74" t="n">
         <v>0</v>
@@ -7886,7 +7886,7 @@
         <v>0.25</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="AE74" t="n">
         <v>4</v>
@@ -7926,38 +7926,38 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L75" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
         <v>6.18</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>22.26</v>
-      </c>
       <c r="O75" t="n">
-        <v>4.27</v>
+        <v>0.1</v>
       </c>
       <c r="P75" t="n">
-        <v>0.01</v>
+        <v>4.62</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
         <v>6.42</v>
       </c>
-      <c r="T75" t="n">
-        <v>0.1</v>
-      </c>
       <c r="U75" t="n">
         <v>0.01</v>
       </c>
@@ -7965,19 +7965,19 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>54</v>
+        <v>1.53</v>
       </c>
       <c r="X75" t="n">
-        <v>4.62</v>
+        <v>0.15</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA75" t="n">
-        <v>1.53</v>
+        <v>0.01</v>
       </c>
       <c r="AB75" t="n">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0.35</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AE75" t="n">
         <v>8</v>
@@ -8023,40 +8023,40 @@
         <v>320.14</v>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.19</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="L76" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
         <v>2.68</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>27.78</v>
-      </c>
       <c r="O76" t="n">
-        <v>9.859999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="P76" t="n">
-        <v>0.02</v>
+        <v>1.95</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>34.43</v>
       </c>
       <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
         <v>17.21</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0.2</v>
       </c>
       <c r="U76" t="n">
         <v>0.02</v>
@@ -8065,19 +8065,19 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>34.43</v>
+        <v>3.29</v>
       </c>
       <c r="X76" t="n">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="Y76" t="n">
         <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA76" t="n">
-        <v>3.29</v>
+        <v>1.48</v>
       </c>
       <c r="AB76" t="n">
         <v>0</v>
@@ -8086,7 +8086,7 @@
         <v>0.59</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="AE76" t="n">
         <v>16</v>
@@ -8123,40 +8123,40 @@
         <v>488.15</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K77" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="L77" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.93</v>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>30.51</v>
-      </c>
       <c r="O77" t="n">
-        <v>13.21</v>
+        <v>0.13</v>
       </c>
       <c r="P77" t="n">
-        <v>0.02</v>
+        <v>0.78</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>23.83</v>
       </c>
       <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
         <v>18.51</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0.13</v>
       </c>
       <c r="U77" t="n">
         <v>0.03</v>
@@ -8165,19 +8165,19 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>23.83</v>
+        <v>7.63</v>
       </c>
       <c r="X77" t="n">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="Y77" t="n">
         <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA77" t="n">
-        <v>7.63</v>
+        <v>3.01</v>
       </c>
       <c r="AB77" t="n">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0.95</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.46</v>
+        <v>0.01</v>
       </c>
       <c r="AE77" t="n">
         <v>32</v>
@@ -8223,40 +8223,40 @@
         <v>641.03</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K78" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L78" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.9</v>
       </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>23.22</v>
-      </c>
       <c r="O78" t="n">
-        <v>7.59</v>
+        <v>0.01</v>
       </c>
       <c r="P78" t="n">
-        <v>0.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>17.76</v>
       </c>
       <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
         <v>14.98</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0.01</v>
       </c>
       <c r="U78" t="n">
         <v>0.29</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>17.76</v>
+        <v>22.76</v>
       </c>
       <c r="X78" t="n">
         <v>0.9399999999999999</v>
@@ -8274,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA78" t="n">
-        <v>22.76</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AB78" t="n">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>1.71</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="AE78" t="n">
         <v>64</v>
@@ -8323,70 +8323,70 @@
         <v>0.08</v>
       </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>1.92</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="L79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>61.74</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
         <v>34.16</v>
       </c>
-      <c r="M79" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>61.74</v>
-      </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC79" t="n">
         <v>0.16</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AE79" t="n">
         <v>1</v>
@@ -8423,61 +8423,61 @@
         <v>2.15</v>
       </c>
       <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="L80" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.4</v>
       </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>51.89</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
         <v>0.83</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="O80" t="n">
-        <v>25.33</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X80" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>51.89</v>
       </c>
       <c r="AB80" t="n">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>7.41</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="AE80" t="n">
         <v>2</v>
@@ -8523,61 +8523,61 @@
         <v>307.54</v>
       </c>
       <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.03</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
         <v>17.53</v>
       </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA81" t="n">
         <v>0.02</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="O81" t="n">
-        <v>2</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T81" t="n">
-        <v>0</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V81" t="n">
-        <v>0</v>
-      </c>
-      <c r="W81" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="X81" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>0.38</v>
       </c>
       <c r="AB81" t="n">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0.17</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="AE81" t="n">
         <v>4</v>
@@ -8623,61 +8623,61 @@
         <v>402.75</v>
       </c>
       <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.05</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
         <v>7.97</v>
       </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>21.84</v>
-      </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>59.54</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q82" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="T82" t="n">
-        <v>0</v>
-      </c>
-      <c r="U82" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V82" t="n">
-        <v>0</v>
-      </c>
-      <c r="W82" t="n">
-        <v>59.54</v>
-      </c>
-      <c r="X82" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>0</v>
-      </c>
       <c r="AA82" t="n">
-        <v>0.77</v>
+        <v>0.01</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>0.31</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="AE82" t="n">
         <v>8</v>
@@ -8726,58 +8726,58 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L83" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
         <v>6.44</v>
       </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="X83" t="n">
         <v>0.08</v>
       </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P83" t="n">
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q83" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="T83" t="n">
-        <v>0</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V83" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" t="n">
-        <v>43.27</v>
-      </c>
-      <c r="X83" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>0</v>
-      </c>
       <c r="AA83" t="n">
-        <v>2.03</v>
+        <v>0.08</v>
       </c>
       <c r="AB83" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0.25</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AE83" t="n">
         <v>16</v>
@@ -8823,40 +8823,40 @@
         <v>679.33</v>
       </c>
       <c r="I84" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="L84" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
         <v>2.73</v>
       </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>27.77</v>
-      </c>
       <c r="O84" t="n">
-        <v>4.31</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>0.02</v>
+        <v>1.21</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>31.44</v>
       </c>
       <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
         <v>25.08</v>
-      </c>
-      <c r="T84" t="n">
-        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0.05</v>
@@ -8865,19 +8865,19 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>31.44</v>
+        <v>5.45</v>
       </c>
       <c r="X84" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA84" t="n">
-        <v>5.45</v>
+        <v>1.08</v>
       </c>
       <c r="AB84" t="n">
         <v>0</v>
@@ -8886,7 +8886,7 @@
         <v>0.64</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="AE84" t="n">
         <v>32</v>
@@ -8923,40 +8923,40 @@
         <v>898.84</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L85" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
         <v>1.14</v>
       </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>30.3</v>
-      </c>
       <c r="O85" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>0.03</v>
+        <v>0.76</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>25.73</v>
       </c>
       <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
         <v>19.92</v>
-      </c>
-      <c r="T85" t="n">
-        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0.18</v>
@@ -8965,19 +8965,19 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>25.73</v>
+        <v>16.18</v>
       </c>
       <c r="X85" t="n">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
       <c r="Y85" t="n">
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA85" t="n">
-        <v>16.18</v>
+        <v>3.14</v>
       </c>
       <c r="AB85" t="n">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>0.68</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AE85" t="n">
         <v>64</v>
